--- a/data/viaticos_dispersionCat.xlsx
+++ b/data/viaticos_dispersionCat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="viaticos" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId4"/>
+    <pivotCache cacheId="18" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6224" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6225" uniqueCount="354">
   <si>
     <t>PK_VIATICOS</t>
   </si>
@@ -983,9 +983,6 @@
     <t>CARRANZA BOCANGEL TED REMY</t>
   </si>
   <si>
-    <t>Tabla (con pivot)</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -1001,9 +998,6 @@
     <t>MODA</t>
   </si>
   <si>
-    <t>QUIEN MAS VIAJO  FUE</t>
-  </si>
-  <si>
     <t>FERNANDO CASTILLO</t>
   </si>
   <si>
@@ -1016,9 +1010,6 @@
     <t>* &lt; 0.15 : indica que la moda no es significativa, varias categorias tienen pesos similares.</t>
   </si>
   <si>
-    <t>EL mas viajero fue muy  privilegiado?</t>
-  </si>
-  <si>
     <t>* &gt; 0.3: La moda se diferencia de los demas</t>
   </si>
   <si>
@@ -1029,9 +1020,6 @@
   </si>
   <si>
     <t>Indice de LAAKSO TAGEPERA</t>
-  </si>
-  <si>
-    <t>Cuantos empleados resaltan por recibir viaticos</t>
   </si>
   <si>
     <t>VC_VIATICOS_MES_ene_jun</t>
@@ -1096,6 +1084,21 @@
   <si>
     <t>DISTANCIA INTERCUARTIL - de marzo amayo</t>
   </si>
+  <si>
+    <t>tabla de los beneficiados con viaticos</t>
+  </si>
+  <si>
+    <t>QUIEN HA RECIBIDO MAS VIATICOS?</t>
+  </si>
+  <si>
+    <t>indice de concentracion: se ha concentrado los viaticos en un solo usuario? En un grupito de ellos?</t>
+  </si>
+  <si>
+    <t>Cuantos empleados resaltan por recibir viaticos?</t>
+  </si>
+  <si>
+    <t>El 50% de los datos difiere de la mediana en 1 mes</t>
+  </si>
 </sst>
 </file>
 
@@ -1144,7 +1147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1154,6 +1157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1279,6 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1318,7 +1328,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3052,11 +3061,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2028466688"/>
-        <c:axId val="-2057811312"/>
+        <c:axId val="-2028775152"/>
+        <c:axId val="-2037206384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2028466688"/>
+        <c:axId val="-2028775152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3098,7 +3107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057811312"/>
+        <c:crossAx val="-2037206384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3106,7 +3115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057811312"/>
+        <c:axId val="-2037206384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3156,7 +3165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2028466688"/>
+        <c:crossAx val="-2028775152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3303,11 +3312,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2025231200"/>
-        <c:axId val="-2064840080"/>
+        <c:axId val="-2031520800"/>
+        <c:axId val="-2022151600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2025231200"/>
+        <c:axId val="-2031520800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3350,7 +3359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064840080"/>
+        <c:crossAx val="-2022151600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3358,7 +3367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064840080"/>
+        <c:axId val="-2022151600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="130.0"/>
@@ -3410,7 +3419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025231200"/>
+        <c:crossAx val="-2031520800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8456,7 +8465,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C4:E281" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -40629,8 +40638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="G287" sqref="G287"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40651,8 +40660,8 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>315</v>
+      <c r="C2" s="27" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -40665,13 +40674,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -40691,7 +40700,7 @@
         <v>3.898305084745763E-2</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -40711,7 +40720,7 @@
         <v>3.0508474576271188E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -40731,7 +40740,7 @@
         <v>2.7966101694915254E-2</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -40768,7 +40777,7 @@
         <v>1.6101694915254237E-2</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -40788,7 +40797,7 @@
         <v>1.4406779661016949E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -40863,7 +40872,7 @@
         <v>1.2711864406779662E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -40883,7 +40892,7 @@
         <v>1.2711864406779662E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -40903,7 +40912,7 @@
         <v>1.2711864406779662E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -40923,7 +40932,7 @@
         <v>1.1864406779661017E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -40943,7 +40952,7 @@
         <v>1.1864406779661017E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -40997,7 +41006,7 @@
         <v>1.1016949152542373E-2</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -41017,7 +41026,7 @@
         <v>1.1016949152542373E-2</v>
       </c>
       <c r="G22" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -45437,7 +45446,7 @@
         <v>148</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D281" s="12">
         <v>1180</v>
@@ -49956,8 +49965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1181"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49970,16 +49979,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -49987,7 +49996,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
@@ -50005,13 +50014,16 @@
       <c r="L3" s="2">
         <v>1</v>
       </c>
+      <c r="M3" s="17" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -50043,7 +50055,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -50075,7 +50087,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -50098,7 +50110,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -50109,7 +50121,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -50132,7 +50144,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -50143,7 +50155,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
@@ -50166,7 +50178,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -50177,7 +50189,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -50200,7 +50212,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -50211,7 +50223,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
@@ -50222,7 +50234,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -50244,7 +50256,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -50265,7 +50277,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -50286,7 +50298,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -50307,7 +50319,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -50328,7 +50340,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D28">
         <v>6</v>
